--- a/Excel/BattleLevelConfig.xlsx
+++ b/Excel/BattleLevelConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Unity\ETIdleGame\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90312466-7D4C-4F47-8F3A-39D49611A038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B18FF6B6-2252-4A3F-AAE3-367C9B438768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>Id</t>
   </si>
@@ -32,10 +32,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>怪物数量</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>c关卡名字</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -48,10 +44,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>MonsterCount</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Name</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -138,6 +130,10 @@
   </si>
   <si>
     <t>80,90</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1002,1002,1002</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -145,7 +141,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,12 +182,6 @@
       <b/>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -238,13 +228,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -622,14 +612,15 @@
   <dimension ref="B1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.77734375" style="2" customWidth="1"/>
-    <col min="3" max="4" width="12.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" style="2" customWidth="1"/>
     <col min="5" max="5" width="15.109375" style="2" customWidth="1"/>
     <col min="6" max="6" width="9.6640625" style="2" customWidth="1"/>
     <col min="7" max="7" width="28.77734375" style="2" customWidth="1"/>
@@ -670,9 +661,6 @@
       <c r="F3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
@@ -685,16 +673,13 @@
         <v>0</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
@@ -708,16 +693,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
@@ -730,17 +712,14 @@
       <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="D6" s="1">
-        <v>1002</v>
-      </c>
-      <c r="E6" s="10">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>24</v>
+      <c r="D6" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
@@ -757,14 +736,11 @@
       <c r="D7" s="1">
         <v>1003</v>
       </c>
-      <c r="E7" s="10">
-        <v>2</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>25</v>
+      <c r="E7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>23</v>
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
@@ -781,14 +757,11 @@
       <c r="D8" s="1">
         <v>1004</v>
       </c>
-      <c r="E8" s="10">
-        <v>3</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>26</v>
+      <c r="E8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
@@ -805,14 +778,11 @@
       <c r="D9" s="1">
         <v>1005</v>
       </c>
-      <c r="E9" s="10">
-        <v>4</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>27</v>
+      <c r="E9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>25</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
@@ -829,14 +799,11 @@
       <c r="D10" s="1">
         <v>1006</v>
       </c>
-      <c r="E10" s="10">
-        <v>5</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>28</v>
+      <c r="E10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
@@ -852,14 +819,11 @@
       <c r="D11" s="1">
         <v>1007</v>
       </c>
-      <c r="E11" s="10">
-        <v>6</v>
+      <c r="E11" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.3">
@@ -869,14 +833,11 @@
       <c r="D12" s="1">
         <v>1008</v>
       </c>
-      <c r="E12" s="10">
-        <v>7</v>
+      <c r="E12" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
@@ -886,14 +847,11 @@
       <c r="D13" s="1">
         <v>1009</v>
       </c>
-      <c r="E13" s="10">
-        <v>8</v>
+      <c r="E13" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
@@ -903,14 +861,11 @@
       <c r="D14" s="1">
         <v>1010</v>
       </c>
-      <c r="E14" s="10">
-        <v>9</v>
+      <c r="E14" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.3">
@@ -920,13 +875,10 @@
       <c r="D15" s="1">
         <v>1011</v>
       </c>
-      <c r="E15" s="10">
-        <v>10</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="12">
+      <c r="E15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="11">
         <v>90100</v>
       </c>
     </row>
@@ -937,30 +889,24 @@
       <c r="D16" s="1">
         <v>1012</v>
       </c>
-      <c r="E16" s="10">
-        <v>11</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" s="12">
+      <c r="E16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="11">
         <v>100110</v>
       </c>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C17" s="1">
         <v>12</v>
       </c>
       <c r="D17" s="1">
         <v>1013</v>
       </c>
-      <c r="E17" s="10">
-        <v>12</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" s="12">
+      <c r="E17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="11">
         <v>110120</v>
       </c>
     </row>
